--- a/TCFIN.xlsx
+++ b/TCFIN.xlsx
@@ -435,792 +435,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A19:C89"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="1" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="3">
+        <v>44796</v>
+      </c>
+      <c r="B2" s="4">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="5">
+        <v>44795</v>
+      </c>
+      <c r="B3" s="6">
+        <v>287.88</v>
+      </c>
+      <c r="C3" s="6">
+        <v>300.35000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="3">
+        <v>44794</v>
+      </c>
+      <c r="B4" s="4">
+        <v>292.02999999999997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>300.35000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="5">
+        <v>44793</v>
+      </c>
+      <c r="B5" s="6">
+        <v>292.02999999999997</v>
+      </c>
+      <c r="C5" s="6">
+        <v>300.35000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="3">
+        <v>44792</v>
+      </c>
+      <c r="B6" s="4">
+        <v>292.02999999999997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>300.35000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="5">
+        <v>44791</v>
+      </c>
+      <c r="B7" s="6">
+        <v>288.13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>293.97000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="3">
+        <v>44790</v>
+      </c>
+      <c r="B8" s="4">
+        <v>281.37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>284.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="5">
+        <v>44789</v>
+      </c>
+      <c r="B9" s="6">
+        <v>275.77999999999997</v>
+      </c>
+      <c r="C9" s="6">
+        <v>278.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="3">
+        <v>44788</v>
+      </c>
+      <c r="B10" s="4">
+        <v>279.12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>285.52999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="5">
+        <v>44787</v>
+      </c>
+      <c r="B11" s="6">
+        <v>279.12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>285.52999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="3">
+        <v>44786</v>
+      </c>
+      <c r="B12" s="4">
+        <v>279.12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>285.52999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="5">
+        <v>44785</v>
+      </c>
+      <c r="B13" s="6">
+        <v>279.12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>285.52999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="3">
+        <v>44784</v>
+      </c>
+      <c r="B14" s="4">
+        <v>279.36</v>
+      </c>
+      <c r="C14" s="4">
+        <v>286.27999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="5">
+        <v>44783</v>
+      </c>
+      <c r="B15" s="6">
+        <v>284.58999999999997</v>
+      </c>
+      <c r="C15" s="6">
+        <v>289.77999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B16" s="4">
+        <v>279.2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>287.66000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="5">
+        <v>44781</v>
+      </c>
+      <c r="B17" s="6">
+        <v>278.94</v>
+      </c>
+      <c r="C17" s="6">
+        <v>283.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="3">
+        <v>44780</v>
+      </c>
+      <c r="B18" s="4">
+        <v>278.77999999999997</v>
+      </c>
+      <c r="C18" s="4">
+        <v>284.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="5">
+        <v>44779</v>
+      </c>
+      <c r="B19" s="6">
+        <v>278.77999999999997</v>
+      </c>
+      <c r="C19" s="6">
+        <v>284.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="3">
-        <v>44796</v>
+        <v>44778</v>
       </c>
       <c r="B20" s="4">
-        <v>288.14999999999998</v>
+        <v>278.77999999999997</v>
       </c>
       <c r="C20" s="4">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+        <v>284.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="5">
-        <v>44795</v>
+        <v>44777</v>
       </c>
       <c r="B21" s="6">
-        <v>287.88</v>
+        <v>284.47000000000003</v>
       </c>
       <c r="C21" s="6">
-        <v>300.35000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+        <v>289.60000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="3">
-        <v>44794</v>
+        <v>44776</v>
       </c>
       <c r="B22" s="4">
-        <v>292.02999999999997</v>
+        <v>281.02</v>
       </c>
       <c r="C22" s="4">
-        <v>300.35000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+        <v>287.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="5">
-        <v>44793</v>
+        <v>44775</v>
       </c>
       <c r="B23" s="6">
-        <v>292.02999999999997</v>
+        <v>276.66000000000003</v>
       </c>
       <c r="C23" s="6">
-        <v>300.35000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+        <v>285.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="3">
-        <v>44792</v>
+        <v>44774</v>
       </c>
       <c r="B24" s="4">
-        <v>292.02999999999997</v>
+        <v>272.48</v>
       </c>
       <c r="C24" s="4">
-        <v>300.35000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+        <v>279.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="5">
-        <v>44791</v>
+        <v>44773</v>
       </c>
       <c r="B25" s="6">
-        <v>288.13</v>
+        <v>276.70999999999998</v>
       </c>
       <c r="C25" s="6">
-        <v>293.97000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+        <v>288.27999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="3">
-        <v>44790</v>
+        <v>44772</v>
       </c>
       <c r="B26" s="4">
-        <v>281.37</v>
+        <v>276.70999999999998</v>
       </c>
       <c r="C26" s="4">
-        <v>284.13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+        <v>288.27999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="5">
-        <v>44789</v>
+        <v>44771</v>
       </c>
       <c r="B27" s="6">
-        <v>275.77999999999997</v>
+        <v>276.70999999999998</v>
       </c>
       <c r="C27" s="6">
-        <v>278.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
+        <v>288.27999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="3">
-        <v>44788</v>
+        <v>44770</v>
       </c>
       <c r="B28" s="4">
-        <v>279.12</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="C28" s="4">
-        <v>285.52999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1">
+        <v>321.89999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="5">
-        <v>44787</v>
+        <v>44769</v>
       </c>
       <c r="B29" s="6">
-        <v>279.12</v>
+        <v>323.77</v>
       </c>
       <c r="C29" s="6">
-        <v>285.52999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1">
+        <v>339.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
       <c r="A30" s="3">
-        <v>44786</v>
+        <v>44768</v>
       </c>
       <c r="B30" s="4">
-        <v>279.12</v>
+        <v>324.88</v>
       </c>
       <c r="C30" s="4">
-        <v>285.52999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1">
+        <v>328.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
       <c r="A31" s="5">
-        <v>44785</v>
+        <v>44767</v>
       </c>
       <c r="B31" s="6">
-        <v>279.12</v>
+        <v>319.72000000000003</v>
       </c>
       <c r="C31" s="6">
-        <v>285.52999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1">
+        <v>325.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
       <c r="A32" s="3">
-        <v>44784</v>
+        <v>44766</v>
       </c>
       <c r="B32" s="4">
-        <v>279.36</v>
+        <v>315.5</v>
       </c>
       <c r="C32" s="4">
-        <v>286.27999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1">
+        <v>326.47000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1">
       <c r="A33" s="5">
-        <v>44783</v>
+        <v>44765</v>
       </c>
       <c r="B33" s="6">
-        <v>284.58999999999997</v>
+        <v>315.5</v>
       </c>
       <c r="C33" s="6">
-        <v>289.77999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1">
+        <v>326.47000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
       <c r="A34" s="3">
-        <v>44782</v>
+        <v>44764</v>
       </c>
       <c r="B34" s="4">
-        <v>279.2</v>
+        <v>315.5</v>
       </c>
       <c r="C34" s="4">
-        <v>287.66000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1">
+        <v>326.47000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="5">
-        <v>44781</v>
+        <v>44763</v>
       </c>
       <c r="B35" s="6">
-        <v>278.94</v>
+        <v>326.08999999999997</v>
       </c>
       <c r="C35" s="6">
-        <v>283.76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1">
+        <v>329.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="3">
-        <v>44780</v>
+        <v>44762</v>
       </c>
       <c r="B36" s="4">
-        <v>278.77999999999997</v>
+        <v>303.44</v>
       </c>
       <c r="C36" s="4">
-        <v>284.58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1">
+        <v>308.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="5">
-        <v>44779</v>
+        <v>44761</v>
       </c>
       <c r="B37" s="6">
-        <v>278.77999999999997</v>
+        <v>297.83999999999997</v>
       </c>
       <c r="C37" s="6">
-        <v>284.58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1">
+        <v>303.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="3">
-        <v>44778</v>
+        <v>44760</v>
       </c>
       <c r="B38" s="4">
-        <v>278.77999999999997</v>
+        <v>295.24</v>
       </c>
       <c r="C38" s="4">
-        <v>284.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1">
+        <v>303.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="5">
-        <v>44777</v>
+        <v>44757</v>
       </c>
       <c r="B39" s="6">
-        <v>284.47000000000003</v>
+        <v>292.5</v>
       </c>
       <c r="C39" s="6">
-        <v>289.60000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1">
+        <v>301.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="3">
-        <v>44776</v>
+        <v>44756</v>
       </c>
       <c r="B40" s="4">
-        <v>281.02</v>
+        <v>284.27999999999997</v>
       </c>
       <c r="C40" s="4">
-        <v>287.55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1">
+        <v>294.93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="5">
-        <v>44775</v>
+        <v>44755</v>
       </c>
       <c r="B41" s="6">
-        <v>276.66000000000003</v>
+        <v>280.06</v>
       </c>
       <c r="C41" s="6">
-        <v>285.12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1">
+        <v>290.14999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="3">
-        <v>44774</v>
+        <v>44754</v>
       </c>
       <c r="B42" s="4">
-        <v>272.48</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="C42" s="4">
-        <v>279.64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1">
+        <v>291.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="5">
-        <v>44773</v>
+        <v>44753</v>
       </c>
       <c r="B43" s="6">
-        <v>276.70999999999998</v>
+        <v>285.69</v>
       </c>
       <c r="C43" s="6">
-        <v>288.27999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1">
+        <v>297.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="3">
-        <v>44772</v>
+        <v>44750</v>
       </c>
       <c r="B44" s="4">
-        <v>276.70999999999998</v>
+        <v>289.29000000000002</v>
       </c>
       <c r="C44" s="4">
-        <v>288.27999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1">
+        <v>300.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45" s="5">
-        <v>44771</v>
+        <v>44749</v>
       </c>
       <c r="B45" s="6">
-        <v>276.70999999999998</v>
+        <v>284.32</v>
       </c>
       <c r="C45" s="6">
-        <v>288.27999999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickBot="1">
+        <v>296.29000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="3">
-        <v>44770</v>
+        <v>44748</v>
       </c>
       <c r="B46" s="4">
-        <v>298.16000000000003</v>
+        <v>270.17</v>
       </c>
       <c r="C46" s="4">
-        <v>321.89999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" thickBot="1">
+        <v>278.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1">
       <c r="A47" s="5">
-        <v>44769</v>
+        <v>44747</v>
       </c>
       <c r="B47" s="6">
-        <v>323.77</v>
+        <v>265.27999999999997</v>
       </c>
       <c r="C47" s="6">
-        <v>339.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" thickBot="1">
+        <v>274.16000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
       <c r="A48" s="3">
-        <v>44768</v>
+        <v>44746</v>
       </c>
       <c r="B48" s="4">
-        <v>324.88</v>
+        <v>272.39</v>
       </c>
       <c r="C48" s="4">
-        <v>328.14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1">
+        <v>281.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="5">
-        <v>44767</v>
+        <v>44743</v>
       </c>
       <c r="B49" s="6">
-        <v>319.72000000000003</v>
+        <v>247.9</v>
       </c>
       <c r="C49" s="6">
-        <v>325.99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" thickBot="1">
+        <v>252.22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1">
       <c r="A50" s="3">
-        <v>44766</v>
+        <v>44742</v>
       </c>
       <c r="B50" s="4">
-        <v>315.5</v>
+        <v>249.59</v>
       </c>
       <c r="C50" s="4">
-        <v>326.47000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1">
+        <v>252.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="5">
-        <v>44765</v>
+        <v>44741</v>
       </c>
       <c r="B51" s="6">
-        <v>315.5</v>
+        <v>245.67</v>
       </c>
       <c r="C51" s="6">
-        <v>326.47000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickBot="1">
+        <v>251.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1">
       <c r="A52" s="3">
-        <v>44764</v>
+        <v>44740</v>
       </c>
       <c r="B52" s="4">
-        <v>315.5</v>
+        <v>243.07</v>
       </c>
       <c r="C52" s="4">
-        <v>326.47000000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
       <c r="A53" s="5">
-        <v>44763</v>
+        <v>44739</v>
       </c>
       <c r="B53" s="6">
-        <v>326.08999999999997</v>
+        <v>240.09</v>
       </c>
       <c r="C53" s="6">
-        <v>329.82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1">
+        <v>244.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="3">
-        <v>44762</v>
+        <v>44736</v>
       </c>
       <c r="B54" s="4">
-        <v>303.44</v>
+        <v>232.72</v>
       </c>
       <c r="C54" s="4">
-        <v>308.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickBot="1">
+        <v>237.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1">
       <c r="A55" s="5">
-        <v>44761</v>
+        <v>44735</v>
       </c>
       <c r="B55" s="6">
-        <v>297.83999999999997</v>
+        <v>232.23</v>
       </c>
       <c r="C55" s="6">
-        <v>303.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1">
+        <v>237.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="3">
-        <v>44760</v>
+        <v>44734</v>
       </c>
       <c r="B56" s="4">
-        <v>295.24</v>
+        <v>227.94</v>
       </c>
       <c r="C56" s="4">
-        <v>303.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" thickBot="1">
+        <v>235.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1">
       <c r="A57" s="5">
-        <v>44757</v>
+        <v>44733</v>
       </c>
       <c r="B57" s="6">
-        <v>292.5</v>
+        <v>233.27</v>
       </c>
       <c r="C57" s="6">
-        <v>301.49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickBot="1">
+        <v>240.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="3">
-        <v>44756</v>
+        <v>44732</v>
       </c>
       <c r="B58" s="4">
-        <v>284.27999999999997</v>
+        <v>235.09</v>
       </c>
       <c r="C58" s="4">
-        <v>294.93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" thickBot="1">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1">
       <c r="A59" s="5">
-        <v>44755</v>
+        <v>44729</v>
       </c>
       <c r="B59" s="6">
-        <v>280.06</v>
+        <v>235.09</v>
       </c>
       <c r="C59" s="6">
-        <v>290.14999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" thickBot="1">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="3">
-        <v>44754</v>
+        <v>44728</v>
       </c>
       <c r="B60" s="4">
-        <v>279.39999999999998</v>
+        <v>235.09</v>
       </c>
       <c r="C60" s="4">
-        <v>291.88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickBot="1">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1">
       <c r="A61" s="5">
-        <v>44753</v>
+        <v>44727</v>
       </c>
       <c r="B61" s="6">
-        <v>285.69</v>
+        <v>229.83</v>
       </c>
       <c r="C61" s="6">
-        <v>297.49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" thickBot="1">
+        <v>238.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="3">
-        <v>44750</v>
+        <v>44726</v>
       </c>
       <c r="B62" s="4">
-        <v>289.29000000000002</v>
+        <v>231.96</v>
       </c>
       <c r="C62" s="4">
-        <v>300.89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" thickBot="1">
+        <v>239.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1">
       <c r="A63" s="5">
-        <v>44749</v>
+        <v>44725</v>
       </c>
       <c r="B63" s="6">
-        <v>284.32</v>
+        <v>227.37</v>
       </c>
       <c r="C63" s="6">
-        <v>296.29000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" thickBot="1">
+        <v>237.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" s="3">
-        <v>44748</v>
+        <v>44722</v>
       </c>
       <c r="B64" s="4">
-        <v>270.17</v>
+        <v>223.2</v>
       </c>
       <c r="C64" s="4">
-        <v>278.17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" thickBot="1">
+        <v>227.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="5">
-        <v>44747</v>
+        <v>44721</v>
       </c>
       <c r="B65" s="6">
-        <v>265.27999999999997</v>
+        <v>217.5</v>
       </c>
       <c r="C65" s="6">
-        <v>274.16000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" thickBot="1">
+        <v>219.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="3">
-        <v>44746</v>
+        <v>44720</v>
       </c>
       <c r="B66" s="4">
-        <v>272.39</v>
+        <v>209.15</v>
       </c>
       <c r="C66" s="4">
-        <v>281.18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" thickBot="1">
+        <v>210.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" s="5">
-        <v>44743</v>
+        <v>44719</v>
       </c>
       <c r="B67" s="6">
-        <v>247.9</v>
+        <v>208.68</v>
       </c>
       <c r="C67" s="6">
-        <v>252.22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" thickBot="1">
+        <v>210.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="3">
-        <v>44742</v>
+        <v>44718</v>
       </c>
       <c r="B68" s="4">
-        <v>249.59</v>
+        <v>208.84</v>
       </c>
       <c r="C68" s="4">
-        <v>252.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" thickBot="1">
+        <v>210.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="5">
-        <v>44741</v>
+        <v>44715</v>
       </c>
       <c r="B69" s="6">
-        <v>245.67</v>
+        <v>207.75</v>
       </c>
       <c r="C69" s="6">
-        <v>251.03</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" thickBot="1">
+        <v>209.64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="3">
-        <v>44740</v>
+        <v>44714</v>
       </c>
       <c r="B70" s="4">
-        <v>243.07</v>
+        <v>207.04</v>
       </c>
       <c r="C70" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" thickBot="1">
+        <v>209.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="5">
-        <v>44739</v>
+        <v>44713</v>
       </c>
       <c r="B71" s="6">
-        <v>240.09</v>
+        <v>208.62</v>
       </c>
       <c r="C71" s="6">
-        <v>244.39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A72" s="3">
-        <v>44736</v>
-      </c>
-      <c r="B72" s="4">
-        <v>232.72</v>
-      </c>
-      <c r="C72" s="4">
-        <v>237.17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A73" s="5">
-        <v>44735</v>
-      </c>
-      <c r="B73" s="6">
-        <v>232.23</v>
-      </c>
-      <c r="C73" s="6">
-        <v>237.32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A74" s="3">
-        <v>44734</v>
-      </c>
-      <c r="B74" s="4">
-        <v>227.94</v>
-      </c>
-      <c r="C74" s="4">
-        <v>235.33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A75" s="5">
-        <v>44733</v>
-      </c>
-      <c r="B75" s="6">
-        <v>233.27</v>
-      </c>
-      <c r="C75" s="6">
-        <v>240.57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A76" s="3">
-        <v>44732</v>
-      </c>
-      <c r="B76" s="4">
-        <v>235.09</v>
-      </c>
-      <c r="C76" s="4">
-        <v>242.24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A77" s="5">
-        <v>44729</v>
-      </c>
-      <c r="B77" s="6">
-        <v>235.09</v>
-      </c>
-      <c r="C77" s="6">
-        <v>242.24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A78" s="3">
-        <v>44728</v>
-      </c>
-      <c r="B78" s="4">
-        <v>235.09</v>
-      </c>
-      <c r="C78" s="4">
-        <v>242.24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A79" s="5">
-        <v>44727</v>
-      </c>
-      <c r="B79" s="6">
-        <v>229.83</v>
-      </c>
-      <c r="C79" s="6">
-        <v>238.32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A80" s="3">
-        <v>44726</v>
-      </c>
-      <c r="B80" s="4">
-        <v>231.96</v>
-      </c>
-      <c r="C80" s="4">
-        <v>239.11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A81" s="5">
-        <v>44725</v>
-      </c>
-      <c r="B81" s="6">
-        <v>227.37</v>
-      </c>
-      <c r="C81" s="6">
-        <v>237.74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A82" s="3">
-        <v>44722</v>
-      </c>
-      <c r="B82" s="4">
-        <v>223.2</v>
-      </c>
-      <c r="C82" s="4">
-        <v>227.61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A83" s="5">
-        <v>44721</v>
-      </c>
-      <c r="B83" s="6">
-        <v>217.5</v>
-      </c>
-      <c r="C83" s="6">
-        <v>219.86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A84" s="3">
-        <v>44720</v>
-      </c>
-      <c r="B84" s="4">
-        <v>209.15</v>
-      </c>
-      <c r="C84" s="4">
-        <v>210.31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A85" s="5">
-        <v>44719</v>
-      </c>
-      <c r="B85" s="6">
-        <v>208.68</v>
-      </c>
-      <c r="C85" s="6">
-        <v>210.17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A86" s="3">
-        <v>44718</v>
-      </c>
-      <c r="B86" s="4">
-        <v>208.84</v>
-      </c>
-      <c r="C86" s="4">
-        <v>210.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A87" s="5">
-        <v>44715</v>
-      </c>
-      <c r="B87" s="6">
-        <v>207.75</v>
-      </c>
-      <c r="C87" s="6">
-        <v>209.64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A88" s="3">
-        <v>44714</v>
-      </c>
-      <c r="B88" s="4">
-        <v>207.04</v>
-      </c>
-      <c r="C88" s="4">
-        <v>209.53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75">
-      <c r="A89" s="5">
-        <v>44713</v>
-      </c>
-      <c r="B89" s="6">
-        <v>208.62</v>
-      </c>
-      <c r="C89" s="6">
         <v>210.81</v>
       </c>
     </row>
